--- a/pred_ohlcv/54_21/2019-10-06 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 ITC ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>66323.9256</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>66323.9256</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>127661.4922</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>80881.09615696198</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>85294.62194696198</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>72400.53159696198</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>108886.639996962</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>108886.639996962</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>35147.28435696199</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>146808.127056962</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>88472.829456962</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>104789.509256962</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>208796.893073125</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>226400.1627791491</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>194654.6193791491</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>185284.9109791491</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>178662.2227373309</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>167059.6511373309</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>230749.7862373309</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>197066.4456373309</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>197199.0355373309</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>197199.0355373309</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>262627.964437331</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>258573.350037331</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>258882.106037331</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>247540.268219648</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>247553.1209803842</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>191917.0609803842</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>192069.5912803842</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>206716.0479803842</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>190603.2979803842</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>186074.1946803842</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>205560.6217803842</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>205510.6217803842</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>190825.5452803842</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>201097.2784803842</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>201097.2784803842</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>140554.7680803842</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-06 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 ITC ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>10192.8204</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>127661.4922</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>80881.09615696198</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>85294.62194696198</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>72400.53159696198</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>108886.639996962</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>108886.639996962</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>35147.28435696199</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>146808.127056962</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>88472.829456962</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>104789.509256962</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>120027.648073125</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>107329.884273125</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>208796.893073125</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>226400.1627791491</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>194654.6193791491</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>185284.9109791491</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>165367.6716791491</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>168952.0939791491</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>168952.0939791491</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>178662.2227373309</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>166388.2396373309</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>197066.4456373309</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>247540.268219648</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>247553.1209803842</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>192069.5912803842</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>190603.2979803842</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>186074.1946803842</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
